--- a/ДЗ 4.xlsx
+++ b/ДЗ 4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\Обучение\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\Обучение\Alepol2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>passed</t>
   </si>
@@ -1030,6 +1030,36 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1044,36 +1074,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1472,10 +1472,10 @@
   <dimension ref="A1:DT61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1564,7 +1564,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1691,43 +1691,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="48" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="48" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="50"/>
+      <c r="P6" s="48"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="50"/>
+      <c r="R6" s="48"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="50"/>
+      <c r="T6" s="48"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1737,29 +1737,29 @@
     </row>
     <row r="7" spans="1:124" ht="126.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="50"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="48"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="50"/>
+      <c r="P7" s="48"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="50"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="50"/>
+      <c r="T7" s="48"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1789,7 +1789,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1814,7 +1816,7 @@
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="43" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1825,7 +1827,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1850,10 +1854,10 @@
       <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="46" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="3"/>
@@ -1861,7 +1865,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -1897,7 +1903,9 @@
       <c r="I11" s="32"/>
       <c r="J11" s="31"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="33"/>
+      <c r="L11" s="33" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="34"/>
       <c r="N11" s="35"/>
       <c r="O11" s="36"/>
@@ -2031,7 +2039,9 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -2067,7 +2077,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -2103,7 +2115,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -2139,7 +2153,9 @@
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -2175,7 +2191,9 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -2202,10 +2220,10 @@
       <c r="D17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="44" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="3"/>
@@ -2213,7 +2231,9 @@
       <c r="I17" s="21"/>
       <c r="J17" s="20"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
@@ -2238,10 +2258,10 @@
       <c r="D18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="46" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="3"/>
@@ -2315,7 +2335,7 @@
       <c r="E20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="44" t="s">
         <v>60</v>
       </c>
       <c r="G20" s="3"/>
@@ -2351,7 +2371,7 @@
       <c r="E21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="47" t="s">
         <v>52</v>
       </c>
       <c r="G21" s="3"/>
@@ -2497,7 +2517,7 @@
       <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="47" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="3"/>
@@ -3498,6 +3518,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3505,12 +3531,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">

--- a/ДЗ 4.xlsx
+++ b/ДЗ 4.xlsx
@@ -1045,6 +1045,27 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1053,27 +1074,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1519,7 +1519,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$42,"failed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1564,7 +1564,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1691,43 +1691,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="49"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="55" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="55" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="48"/>
+      <c r="P6" s="55"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="48"/>
+      <c r="R6" s="55"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="48"/>
+      <c r="T6" s="55"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1737,29 +1737,29 @@
     </row>
     <row r="7" spans="1:124" ht="126.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="54"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="50"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="48"/>
+      <c r="L7" s="55"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="48"/>
+      <c r="N7" s="55"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="48"/>
+      <c r="P7" s="55"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="48"/>
+      <c r="R7" s="55"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="48"/>
+      <c r="T7" s="55"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2154,7 +2154,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
       <c r="L15" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
@@ -2192,7 +2192,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
       <c r="L16" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
@@ -2232,7 +2232,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="10"/>
       <c r="L17" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
@@ -3518,12 +3518,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3531,6 +3525,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">
